--- a/biology/Zoologie/Carrai_afoveolata/Carrai_afoveolata.xlsx
+++ b/biology/Zoologie/Carrai_afoveolata/Carrai_afoveolata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carrai afoveolata, unique représentant du genre Carrai, est une espèce d'araignées mygalomorphes de la famille des Euagridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carrai afoveolata, unique représentant du genre Carrai, est une espèce d'araignées mygalomorphes de la famille des Euagridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Galles du Sud en Australie[1]. Elle se rencontre dans la forêt d'État de Carrai.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Galles du Sud en Australie. Elle se rencontre dans la forêt d'État de Carrai.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 6,38 mm de long sur 5,63 mm et l'abdomen 8,50 mm de long sur 6,20 mm et la carapace de la femelle paratype mesure 6,56 mm de long sur 5,25 mm et l'abdomen 10,56 mm de long sur 7,85 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 6,38 mm de long sur 5,63 mm et l'abdomen 8,50 mm de long sur 6,20 mm et la carapace de la femelle paratype mesure 6,56 mm de long sur 5,25 mm et l'abdomen 10,56 mm de long sur 7,85 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Raven, 1984 : Systematics of the Australian curtain-web spiders (Ischnothelinae: Dipluridae: Chelicerata). Australian Journal of Zoology Supplementary Series, no 93, p. 1-102.</t>
         </is>
